--- a/Интеграции/ЦА-ДЗ5-Интеграции.xlsx
+++ b/Интеграции/ЦА-ДЗ5-Интеграции.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vburmistrov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vburmistrov\Documents\system-analyst-course\Интеграции\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C840A7-6F1C-47E2-A52E-74A54C72C8AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48FD41CF-AA63-43D3-982E-926EC8C8065D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21612" windowHeight="9588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,15 @@
     <sheet name="Решение 1" sheetId="1" r:id="rId1"/>
     <sheet name="Решение 2" sheetId="2" r:id="rId2"/>
     <sheet name="Решение 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Решение 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="94">
   <si>
     <t>Описание</t>
   </si>
@@ -272,6 +274,103 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1. Универсальность и совместимость. REST API использует стандартные HTTP методы, делая его широко совместимым с различными платформами и системами. Это обеспечивает легкую интеграцию между сервисами интернет-магазина и внешними системами, такими как платформы электронной коммерции, системы управления складом и системы учета.
+2. Простота и гибкость. Благодаря использованию стандартизированных HTTP запросов и форматов данных (JSON, XML), REST API облегчает разработку и тестирование. Это позволяет разработчикам быстро внедрять и модифицировать функционал, связанный с каталогом товаров.
+3. Безопасность. REST API поддерживает различные механизмы безопасности, включая HTTPS, токены доступа и аутентификацию OAuth. Это критически важно для защиты данных о товарах и информации о пользователях интернет-магазина.
+4. Эффективное взаимодействие с клиентом. Хотя REST API основан на синхронных запросах, клиентские приложения могут реализовывать асинхронные запросы для улучшения пользовательского опыта. Это позволяет интерфейсу пользователя оставаться отзывчивым и обновляться в реальном времени, не заставляя пользователя ждать загрузки данных.</t>
+  </si>
+  <si>
+    <t>Kafka и REST API</t>
+  </si>
+  <si>
+    <t>1. Масштабируемость. Apache Kafka спроектирован для обработки больших объемов данных в реальном времени, обеспечивая высокую пропускную способность при параллельной обработке сообщений. Kafka способен обрабатывать сотни тысяч сообщений в секунду, что делает его идеальным выбором для корпоративных систем с высокими требованиями к производительности.
+2. Надежность. Kafka обеспечивает высокую надежность через репликацию данных и поддерживает долговременное хранение сообщений. Это позволяет эффективно восстанавливаться после сбоев и обеспечивает гарантии доставки сообщений.
+3. Упрощение архитектуры. Использование Kafka как централизованной системы для сбора и агрегации данных из различных источников упрощает архитектуру корпоративной системы и облегчает управление потоками данных.
+4. Интеграция с большим количеством систем. Kafka имеет широкую экосистему и поддерживает интеграцию с различными системами и платформами, что упрощает обмен данными между разнообразными компонентами корпоративной системы.
+5. Интеграция с системами для управленческой отчетности и планирования закупок. После агрегации данных продаж они могут быть предоставлены системам для сбора управленческой отчетности и планирования закупок через REST API, обеспечивая актуальность и доступность информации для принятия решений.</t>
+  </si>
+  <si>
+    <t>Webhooks и Push Notification Services</t>
+  </si>
+  <si>
+    <t>1. Актуальность уведомлений. Для отправки уведомлений о готовности клубной карты крайне важно, чтобы пользователь получал информацию мгновенно. Использование вебхуков для мониторинга статуса клубной карты в реальном времени и последующая отправка пуш-уведомлений через специализированные сервисы пуш-уведомлений (например, Firebase Cloud Messaging для Android или Apple Push Notification Service для iOS) являются оптимальным решением.
+2. Гарантия доставки уведомления пользователю. Пуш-уведомления позволяют достичь пользователя независимо от того, активно ли в данный момент используется приложение на телефоне. Это гарантирует, что информация о готовности клубной карты будет доставлена непосредственно пользователю без задержек.
+3. Гибкость и масштабируемость. Использование вебхуков в сочетании с сервисами пуш-уведомлений позволяет легко масштабировать систему уведомлений, а также добавлять новые типы уведомлений без необходимости изменения основного кода приложения.
+4. Высокий уровень вовлеченности пользователя. Пуш-уведомления способствуют повышению уровня вовлеченности и лояльности пользователей, предоставляя им актуальную информацию в удобной форме.</t>
+  </si>
+  <si>
+    <t>WebSockets и REST API</t>
+  </si>
+  <si>
+    <t>1. Двусторонняя связь в реальном времени. Для доставки сообщений от службы поддержки пользователям на сайте критически важно обеспечить мгновенный обмен сообщениями. WebSockets позволяют установить постоянное соединение между клиентом и сервером, что идеально подходит для чатов поддержки в реальном времени, поскольку обеспечивает мгновенную доставку сообщений в обе стороны без необходимости постоянного переподключения или опроса сервера.
+2. Поддержка браузеров. WebSockets широко поддерживаются всеми современными веб-браузерами, что делает их идеальным выбором для создания интерактивных веб-приложений, таких как чаты поддержки на сайтах. В то время как gRPC-web требует использования прокси-сервера для обеспечения связи между клиентом и сервером gRPC, что может добавить дополнительную сложность в развертывание и поддержку.
+3. Эффективность и масштабируемость. В отличие от традиционных HTTP-запросов, WebSockets уменьшают нагрузку на сервер, поскольку после установления соединения данные могут передаваться в обоих направлениях без повторных рукопожатий и заголовков HTTP. Это повышает производительность и масштабируемость системы, что особенно важно для служб поддержки с большим объемом запросов.
+4. Надежность и безопасность. WebSockets поддерживают шифрование через WSS (WebSocket Secure), обеспечивая безопасный обмен данными между пользователем и службой поддержки. Это обеспечивает конфиденциальность передаваемой информации и защиту от межсетевого подслушивания.
+5. Интеграция с системами обработки запросов. Для управления запросами и их эффективной обработки можно использовать REST API, который позволяет интегрировать чат поддержки с внутренними системами учета обращений, базами знаний и системами CRM. Это позволяет автоматизировать часть процессов, например, регистрацию обращений, и обеспечивает более качественное и быстрое обслуживание пользователей.</t>
+  </si>
+  <si>
+    <t>Enterprise Service Bus (ESB) и REST API</t>
+  </si>
+  <si>
+    <t>1. Централизованное управление. Enterprise Service Bus (ESB) предлагает централизованное управление потоками данных между различными корпоративными системами, что идеально подходит для обновления справочной информации о клиентах. ESB позволяет интегрировать разнородные системы с различными форматами данных и протоколами коммуникации, обеспечивая единый канал обмена данными.
+2. Трансформация и маршрутизация данных. ESB обеспечивает трансформацию данных для соответствия уникальным требованиям каждой корпоративной системы. Это означает, что информация о клиентах из системы учета может быть автоматически преобразована и распределена в соответствии с нуждами каждой целевой системы.
+3. Гибкость и масштабируемость. Использование ESB позволяет легко добавлять, удалять или модифицировать интегрированные системы без необходимости изменения кода в каждой из них, что делает архитектуру более гибкой и устойчивой к изменениям.
+4. Высокая доступность и надежность. ESB обеспечивает высокую доступность и надежность передачи данных, используя механизмы очередей сообщений и гарантируя доставку данных даже в случае временных сбоев в работе одной из систем.
+5. Использование REST API для обновления данных. Для систем, поддерживающих REST API, ESB может выполнять обновление данных через API вызовы, что обеспечивает простоту и стандартизацию взаимодействия.</t>
+  </si>
+  <si>
+    <t>1. Реальное время. WebRTC (Web Real-Time Communication) позволяет передавать аудио и видео в реальном времени между браузерами и приложениями без необходимости устанавливать дополнительные плагины или приложения. Это идеально подходит для создания аналога видеоконференции, подобного Skype, где критически важны низкая задержка и высокая скорость передачи данных.
+2. P2P соединения. WebRTC использует peer-to-peer (P2P) соединения для передачи потоковых данных, что обеспечивает более эффективное использование сетевых ресурсов, поскольку данные передаются напрямую между участниками без необходимости проходить через центральный сервер. Это способствует снижению нагрузки на сервер и может улучшить качество связи.
+3. Безопасность. WebRTC включает в себя встроенные механизмы шифрования (DTLS и SRTP) для всех передаваемых данных, обеспечивая безопасную передачу конфиденциальной информации и защиту от подслушивания.
+4. Взаимодействие с современными веб-технологиями. WebRTC легко интегрируется с HTML5 и JavaScript, что позволяет разработчикам создавать богатые веб-приложения для видеоконференций с использованием стандартных веб-технологий без необходимости разработки сложного серверного ПО.
+5. Универсальность и масштабируемость. Хотя WebRTC оптимизирован для P2P-соединений, он также поддерживает сценарии широковещательной передачи и конференций с несколькими участниками через использование медиа-серверов (например, SFUs), что делает его масштабируемым решением для видеоконференцсвязи разного масштаба.</t>
+  </si>
+  <si>
+    <t>Enterprise Service Bus (ESB) и API Gateway</t>
+  </si>
+  <si>
+    <t>1. Централизованное управление и маршрутизация. В среде с сотней систем, где каждая обменивается данными с другими, использование Enterprise Service Bus (ESB) обеспечивает централизованное управление этими потоками данных. ESB способен маршрутизировать сообщения, трансформировать данные для соответствия различным форматам и стандартам, а также обрабатывать интеграцию между системами, использующими разные технологии. Это позволяет снизить сложность интеграции и упростить управление связями между системами.
+2. Гибкость в интеграции разнородных систем. ESB предлагает высокую гибкость для работы с различными протоколами и форматами данных, что критически важно при интеграции старых и новых систем. Он поддерживает как точка-точка, так и публикация-подписка модели коммуникации, позволяя эффективно обрабатывать разнообразные сценарии обмена данными.
+3. Обеспечение безопасности и управление доступом. В такой сложной интеграционной среде важно обеспечить безопасность передачи данных и контроль доступа к системам. API Gateway может служить защитным барьером для API-интерфейсов, предоставляя аутентификацию, авторизацию, шифрование, ограничение скорости обращений и другие функции безопасности. Это помогает защитить системы от несанкционированного доступа и атак.
+4. Масштабируемость и устойчивость к изменениям. Использование ESB и API Gateway позволяет масштабировать интеграционные процессы по мере роста компании и её технологического ландшафта. Они обеспечивают устойчивость архитектуры к изменениям, позволяя добавлять, удалять или модифицировать системы с минимальными затратами и без необходимости переписывания большого объема интеграционной логики.</t>
+  </si>
+  <si>
+    <t>REST API с использованием HTTPS и токенов доступа</t>
+  </si>
+  <si>
+    <t>1. Безопасность передачи данных. Передача персональных данных требует высокого уровня безопасности. Использование HTTPS обеспечивает шифрование данных в процессе передачи, защищая их от перехвата. Токены доступа (например, OAuth 2.0) предоставляют дополнительный слой безопасности, позволяя системе потребителя запрашивать данные только после аутентификации и авторизации, тем самым минимизируя риск несанкционированного доступа.
+2. Гибкость и универсальность. REST API поддерживает разнообразие форматов данных (например, JSON, XML) и может быть легко интегрирован с различными платформами и языками программирования. Это обеспечивает гибкость в разработке и поддержке системы, позволяя легко адаптировать процесс передачи данных под конкретные нужды потребителя.
+3. Минимальная задержка при отображении данных. REST API подходит для сценариев, где данные нужно отобразить на экране в реальном времени. Современные технологии и фреймворки для разработки веб- и мобильных приложений (например, React, Angular, Swift) хорошо интегрируются с REST API, обеспечивая быстрое отображение данных на экране пользователя.
+4. Контроль доступа и управление сессиями. Механизмы аутентификации и управления сессиями, реализуемые через токены доступа, позволяют точно контролировать, какие данные доступны для пользователя во время работы с системой. Это особенно важно при работе с персональными данными, где необходимо соблюдать политики конфиденциальности и защиты данных.</t>
+  </si>
+  <si>
+    <t>REST API с использованием HTTPS</t>
+  </si>
+  <si>
+    <t>1. Безопасность и конфиденциальность. Загрузка статуса заказа и суммы оплаты требует высокого уровня безопасности и конфиденциальности, поскольку эти данные чувствительны. Использование HTTPS обеспечивает шифрование данных в процессе передачи, защищая их от перехвата или вмешательства третьих лиц.
+2. Простота интеграции и универсальность. REST API является широко принятым стандартом для веб-сервисов, что облегчает интеграцию между различными системами и платформами. Это позволяет легко интегрировать системы управления заказами с веб-интерфейсами личных кабинетов пользователей, независимо от используемых технологий.
+3. Мгновенное обновление информации. REST API подходит для сценариев, где требуется мгновенное обновление информации в личном кабинете пользователя. Благодаря своей легковесности и эффективности, REST API позволяет реализовать быструю и отзывчивую систему обновления данных без необходимости перезагрузки страницы.
+4. Масштабируемость. При росте числа пользователей и увеличении объема заказов система на основе REST API может быть легко масштабирована для обработки возрастающей нагрузки, благодаря использованию балансировщиков нагрузки и кластеризации серверов.</t>
+  </si>
+  <si>
+    <t>RabbitMQ и Webhooks</t>
+  </si>
+  <si>
+    <t>1. Надежность и асинхронность. Выгрузка статуса сотрудника "уволен" и последующее создание заявок в различные системы требует надежного и асинхронного механизма передачи данных. Использование системы обмена сообщениями с подтверждением (например, RabbitMQ) обеспечивает доставку сообщений даже в условиях временной недоступности одной из систем. Это позволяет гарантировать, что все необходимые действия будут выполнены без потери данных.
+2. Автоматизация процессов. Webhooks предлагают простой и эффективный способ для автоматического создания заявок в целевых системах (бухгалтерия, Service Desk, АХО) в ответ на изменение статуса сотрудника. При получении сообщения о том, что сотрудник уволен, система HR может автоматически отправить HTTP-запросы к соответствующим вебхукам целевых систем для инициации процессов.
+3. Централизованное управление. Использование централизованной системы обмена сообщениями для координации процессов обеспечивает единое место для мониторинга и управления потоками данных между различными системами. Это упрощает отслеживание выполнения процессов и облегчает обнаружение и устранение проблем.
+4. Гибкость и масштабируемость. Подход, сочетающий использование сообщений с подтверждением и вебхуков, обладает высокой гибкостью и масштабируемостью. Это позволяет легко добавлять или изменять целевые системы и процессы без необходимости значительной переработки существующей интеграционной логики.</t>
+  </si>
+  <si>
+    <t>Вид интеграции2</t>
+  </si>
+  <si>
+    <t>Синхронная</t>
+  </si>
+  <si>
+    <t>Асинхронная</t>
   </si>
 </sst>
 </file>
@@ -638,7 +737,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -703,6 +802,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -727,7 +851,7 @@
     <cellStyle name="Warning" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -847,6 +971,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -862,11 +989,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:D11" totalsRowShown="0">
+  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Описание"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Тип интеграции"/>
+    <tableColumn id="4" xr3:uid="{838DCF96-2B52-482E-8BDF-FDE18976D25E}" name="Тип интеграции" dataDxfId="11" dataCellStyle="Default"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Вид интеграции2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Обоснование"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1194,140 +1322,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="54.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="101.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.5546875" style="3"/>
+    <col min="2" max="2" width="40.33203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="101.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57.6">
+    <row r="2" spans="1:5" ht="57.6">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="100.8">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="100.8">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.2">
+    <row r="5" spans="1:5" ht="43.2">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="72">
+    <row r="6" spans="1:5" ht="72">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.2">
+    <row r="7" spans="1:5" ht="43.2">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="72">
+    <row r="8" spans="1:5" ht="72">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57.6">
+    <row r="9" spans="1:5" ht="57.6">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2">
+    <row r="10" spans="1:5" ht="43.2">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="72">
+    <row r="11" spans="1:5" ht="72">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1346,7 +1504,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1490,7 +1648,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
@@ -1635,4 +1793,156 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355D79B0-0A9E-4E21-A0C1-76CCEFE5EBBB}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.5546875" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="48.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="152.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.4">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="144">
+      <c r="A2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" ht="158.4">
+      <c r="A3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" ht="129.6">
+      <c r="A4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" ht="201.6">
+      <c r="A5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" ht="172.8">
+      <c r="A6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" ht="187.2">
+      <c r="A7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" ht="187.2">
+      <c r="A8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" ht="172.8">
+      <c r="A9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" ht="144">
+      <c r="A10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" ht="158.4">
+      <c r="A11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>